--- a/predictions/multiple/LinearRegression/Retinopatías.xlsx
+++ b/predictions/multiple/LinearRegression/Retinopatías.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,6 +451,11 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>MAE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Tipo</t>
         </is>
       </c>
@@ -467,7 +472,10 @@
       <c r="C2" t="n">
         <v>0.9606827186718532</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="n">
+        <v>1.027519701295929</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>
@@ -485,7 +493,10 @@
       <c r="C3" t="n">
         <v>0.9658637346517203</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="n">
+        <v>1.350102492671558</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>
@@ -503,7 +514,10 @@
       <c r="C4" t="n">
         <v>0.9392010439445886</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="n">
+        <v>2.046624516121589</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>
@@ -521,7 +535,10 @@
       <c r="C5" t="n">
         <v>0.9658524003583331</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="n">
+        <v>2.091210877959376</v>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>

--- a/predictions/multiple/LinearRegression/Retinopatías.xlsx
+++ b/predictions/multiple/LinearRegression/Retinopatías.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>Tipo</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Modelo</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -480,6 +485,16 @@
           <t>multiple</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       LinearRegression())]),
+                                            param_grid={'model__fit_intercept': [True,
+                                                                                 False]},
+                                            scoring='neg_mean_squared_error'))</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -501,6 +516,16 @@
           <t>multiple</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       LinearRegression())]),
+                                            param_grid={'model__fit_intercept': [True,
+                                                                                 False]},
+                                            scoring='neg_mean_squared_error'))</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -522,6 +547,16 @@
           <t>multiple</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       LinearRegression())]),
+                                            param_grid={'model__fit_intercept': [True,
+                                                                                 False]},
+                                            scoring='neg_mean_squared_error'))</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -541,6 +576,16 @@
       <c r="E5" t="inlineStr">
         <is>
           <t>multiple</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       LinearRegression())]),
+                                            param_grid={'model__fit_intercept': [True,
+                                                                                 False]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>

--- a/predictions/multiple/LinearRegression/Retinopatías.xlsx
+++ b/predictions/multiple/LinearRegression/Retinopatías.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,16 @@
           <t>Modelo</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Elapsed Time</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CPU</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -495,6 +505,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G2" t="n">
+        <v>0.4794827245333484</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.996</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -526,6 +542,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G3" t="n">
+        <v>0.4794827245333484</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.996</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -557,6 +579,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G4" t="n">
+        <v>0.4794827245333484</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.996</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -588,6 +616,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G5" t="n">
+        <v>0.4794827245333484</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.996</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/predictions/multiple/LinearRegression/Retinopatías.xlsx
+++ b/predictions/multiple/LinearRegression/Retinopatías.xlsx
@@ -502,14 +502,14 @@
                                                                        LinearRegression())]),
                                             param_grid={'model__fit_intercept': [True,
                                                                                  False]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.4794827245333484</v>
+        <v>0.5246799388667569</v>
       </c>
       <c r="H2" t="n">
-        <v>0.996</v>
+        <v>0.9420000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -539,14 +539,14 @@
                                                                        LinearRegression())]),
                                             param_grid={'model__fit_intercept': [True,
                                                                                  False]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0.4794827245333484</v>
+        <v>0.5246799388667569</v>
       </c>
       <c r="H3" t="n">
-        <v>0.996</v>
+        <v>0.9420000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -576,14 +576,14 @@
                                                                        LinearRegression())]),
                                             param_grid={'model__fit_intercept': [True,
                                                                                  False]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0.4794827245333484</v>
+        <v>0.5246799388667569</v>
       </c>
       <c r="H4" t="n">
-        <v>0.996</v>
+        <v>0.9420000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -613,14 +613,14 @@
                                                                        LinearRegression())]),
                                             param_grid={'model__fit_intercept': [True,
                                                                                  False]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0.4794827245333484</v>
+        <v>0.5246799388667569</v>
       </c>
       <c r="H5" t="n">
-        <v>0.996</v>
+        <v>0.9420000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/predictions/multiple/LinearRegression/Retinopatías.xlsx
+++ b/predictions/multiple/LinearRegression/Retinopatías.xlsx
@@ -506,10 +506,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.5246799388667569</v>
+        <v>0.4760219657335256</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9420000000000001</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="3">
@@ -543,10 +543,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0.5246799388667569</v>
+        <v>0.4760219657335256</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9420000000000001</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="4">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0.5246799388667569</v>
+        <v>0.4760219657335256</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9420000000000001</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="5">
@@ -617,10 +617,10 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0.5246799388667569</v>
+        <v>0.4760219657335256</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9420000000000001</v>
+        <v>0.998</v>
       </c>
     </row>
   </sheetData>
